--- a/data/TEx Cartography191016.xlsx
+++ b/data/TEx Cartography191016.xlsx
@@ -1,13 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atg\Documents\GitHub\TateViz\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Form Responses 1" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Form Responses 1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -17,9 +25,16 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A1">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
-        <t xml:space="preserve">Insert relationship to person/place/project. Free text?</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>Insert relationship to person/place/project. Free text?</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -27,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="459">
   <si>
     <t>Timestamp</t>
   </si>
@@ -110,6 +125,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>The Model</t>
     </r>
@@ -127,19 +144,33 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Modellen – En model förettkvalitativtsamhälle</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>The Model – A Model for a Qualitative Society</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>) opened and offered free access for all of Stockholm’s children, attracting more than 33,500 visitors, 20,000 of whom were children. New walls and a Masonite Goor were installed in the large hall, along with jungle gyms, a foamrubber basin, swings, climbing ropes and water chutes. Tools, paint, building materials and fabrics were at the children’s disposal during the entire course of the project to aid their creativity. The Royal Theatre donated a selection of period costumes to be used for dressing up, while Nielsen provided carnival masks of Charles de Gaulle, Mao Zedong, Lyndon B. Johnson and Fidel Castro. Loudspeakers were placed in each corner of the exhibition space, and the children operated turntables with a collection of LPs from every genre. In the restaurant, a number of TV screens carried live transmissions from the galleries, enabling visitors to take in the whole experience from outside. The white cube, a space designed for contemplation, was thus transformed into an open area for play and social irrationality, offering new possibilities for behaviour and proving that activity could not be prescribed.</t>
     </r>
   </si>
@@ -174,10 +205,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Information Action </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>at the Tate Gallery</t>
     </r>
   </si>
@@ -194,19 +232,33 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Information Action</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> as part of his contribution to </t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Seven Exhibitions</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>, a series of solo shows by different artists at the Tate Gallery, Millbank. In the Octagon of the Duveen Galleries, in what is now Tate Britain, Beuys lectured on humanity’s natural creative capacity and the power of direct democracy to shape society. He chalked his conceptual theories onto three blackboards (now in the Tate collection) and engaged the crowd in a free-form and often tense discussion. Not simply receptacles of ideas, the blackboards helped to determine the relationship between the artist and his audience, clearly signalling Beuys’s role as instructor. The format of the talk also served to position Beuys at the work’s centre.</t>
     </r>
   </si>
@@ -238,6 +290,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Catédra Arte de Conducta</t>
     </r>
@@ -249,19 +303,33 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Cátedra Arte de Conducta</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> (</t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Behavior Art Department</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> - 2002-2009) emerged like a piece of public art intended to create a space of alternative training to the system of art studies in contemporary Cuban society. It is a Long Term Intervention focused in the discussion and analysis of sociopolitical behavior and the understanding of art as an instrument for the transformation of ideology through the activation of civic action on its environment. It was created as a space for the practice of Arte de Conducta (Behavior Art). Actions aimed to transform some spaces in society through art, transcending symbolic representation or metaphor and meeting with their activity some deficits in reality, in life through Arte Útil (Useful Art).</t>
     </r>
   </si>
@@ -446,15 +514,24 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Insertions into Ideological Circuits: Coca-Cola Project </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>and</t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> Banknote Project</t>
     </r>
@@ -469,73 +546,129 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Insertions into Ideological Circuits</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> projects for an exhibition of conceptual art held at The Museum of Modern Art, New York in 1970 entitled </t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Information</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">. The </t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Coca-Cola Project</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> and the </t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Cédula</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> or </t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Banknote Project</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> explore the notion of circulation and exchange of goods, wealth and information as manifestations of the dominant ideology. For the </t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Coca-Cola Project</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> Meireles removed Coca-Cola bottles from normal circulation and modified them by adding critical political statements, or instructions for turning the bottle into a Molotov cocktail, before returning them to the circuit of exchange. On the bottles, such messages as ‘Yankees Go Home’ are followed by the work’s title and the artist’s statement of purpose: ‘To register informations and critical opinions on bottles and return them to circulation’. The Coca-Cola bottle is an everyday object of mass circulation; in 1970 in Brazil it was a symbol of US imperialism and it has become, globally, a symbol of capitalist consumerism. As the bottle progressively empties of dark brown liquid, the statement printed in white letters on a transparent label adhering to its side becomes increasingly invisible, only to reappear when the bottle is refilled for recirculation. The </t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Banknote Project</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> followed a similar structure, with texts containing information and critical messages being stamped onto banknotes that were then returned to circulation. In both projects, the messages are in a mixture of English and Portuguese. In 1970, when Meireles produced the Insertions into Ideological Circuits projects, Brazil was undergoing the most oppressive period of its twenty-one year government by military dictatorship. At the time, the Insertions constituted a form of guerrilla tactics of political resistance in order to elude the strict state censorship enforced by the regime. Meireles has commented: 'The </t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Insertions into Ideological Circuits</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> arose out of the need to create a system for the circulation and exchange of information that did not depend on any kind of centralized control. This would be a form of language, a system essentially opposed to the media of press, radio and television – typical examples of media that actually reach an enormous audience, but in the circulation systems of which there is always a degree of control and channelling of the information inserted ... The way I conceived it, the Insertions would only exist to the extent that they ceased to be the work of just one person. The work only exists to the extent that other people participate in it. What also arises is the need for anonymity. By extension, the question of anonymity involves the question of ownership. When the object of art becomes a practice, it becomes something over which you can have no control or ownership.'</t>
     </r>
   </si>
@@ -561,10 +694,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Silver Action</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
@@ -668,6 +808,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Tatlin's Whisper #6</t>
     </r>
@@ -682,10 +824,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Tatlin's Whisper #6 </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">was the sixth part of Tania Bruguera's exploration into the reception of decontextualised political actions, and issues of freedom of speech. Positioned in the centre of the Wifredo Lam Centre, Bruguera provied a dais, lecturn and microphone, and invited members of the public to come and talk for one minute about their response to the political and social situation in Cuba. Each speaker was flanked by two individuals in military uniform, and had a white dove placed on their arm, symbolic of Fidel Castro's first post-revolution speech. The audience was also given disposible cameras and asked to document the event. </t>
     </r>
   </si>
@@ -714,9 +863,6 @@
     <t xml:space="preserve">Yo Tambien Exijo: A Restaging of Tatlin's Whisper #6 </t>
   </si>
   <si>
-    <t>18/04/2015</t>
-  </si>
-  <si>
     <t>In response to artist Tania Bruguera's arrest in Cuba in December 2014, various arts institutions across the world re-staged her work Tatlin's Whisper #6 which invited members of the public to take the microphone and speak on a topic of their choice for one minute. In the re-staging, other artists and activists, as well as visitors to the public spaces or museums the work was hosted by, spoke on topics of their choice or read out pre-selected sections of texts related to free speech and liberty.The individual iterations were pulled together under the title 'Yo Tambien Exijo' - or 'I also demand'.   </t>
   </si>
   <si>
@@ -738,6 +884,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Bluetooth Cinema</t>
     </r>
@@ -764,6 +912,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Untitled (Free)</t>
     </r>
@@ -808,6 +958,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Measuring the Universe</t>
     </r>
@@ -825,10 +977,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Measuring the Universe</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> was installed in Gallery 5 at Tate St Ives. Installed in an initially empty, white gallery, the walls are gradually filled with markings, as visitors measure their height, and sign their mark with their name and the date. Over the course of the installation, the walls become fuller, with markings and signatures overlapping with one another. At the very end of the duration of the installation, the walls are painted white again, leaving no trace in the space. </t>
     </r>
   </si>
@@ -863,6 +1022,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">I am a Helicopter, Camera, Queen </t>
     </r>
@@ -877,10 +1038,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">I am a Helicopter, Camera, Queen. </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">Through an open invitation, Roysdon assembled a group of around 100 voluntary participants, who were not necessarily artist themselves, but who self-identified as queer or feminist. Following a score set out by Roysdon, and shown visually on the floor of the room, the participants explored the space with their bodies, standing in different configurations, and moving to the limits of the room, before exceeding them by flowing out in the adjacent Turbine Hall. </t>
     </r>
   </si>
@@ -906,6 +1074,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Women and Work: A Document on the Division of Labour in Industry 1973-75</t>
     </r>
@@ -917,19 +1087,33 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Women and Work: A Document on the Division of Labour in Industry 1973-75</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> tells the stories of over 150 working women who participated in the project and offers a specific account of the participants' relationship to the workplace, as well as a more general examination of the changes in labour and industry brought about by the EPA. Harrison, Hunt and Kelly employed a sociological approach, collecting a vast amount of data through interviews, archival research and observation. Punch cards and rates of pay record the gap in wages between men and women, and films of life in the factory show women confined to repetitive, stationary and low-skilled tasks while men perform more physical and supervisory roles. The portraits and names of the female employees that are installed near the beginning of the display put human faces to the facts and figures. </t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Women and Work </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>was one of the earliest projects to tackle political and industrial issues from an overtly feminist perspective. The significance of the artists' intervention was recognized by factory management when they eventually banned Harrison, Hunt and Kelly from the site.</t>
     </r>
   </si>
@@ -955,6 +1139,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Derelict Land Art: Five Sisters</t>
     </r>
@@ -999,6 +1185,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Beneath Dignity</t>
     </r>
@@ -1007,19 +1195,33 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Beneath Dignity, Bregenz</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> 1977 was performed in conjunction with an exhibition of British art in Austria (</t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Englishe Kunst der Gegenwart</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> in September 1971); Brisley was invited by Norbert Lynton to take part. Brisley had worked during this year on an Artist Placement Group project in Peterlee in a community of miners and the title is indicative of his sympathy with the miners, and the lowness (and implied loneliness) of their working conditions. The work that preceded it had a similar preoccupation with digging and working in appalling conditions. In Bregenz he was presented with a strikingly different environment: a picturesque town by the side of a lake (Lake Constance) with a small mountain behind. This work is a response to this setting, the movement from mountain to flat ground and the lake (from the vertical to the horizontal). He chose to work on a quayside, using five roughly constructed frames which marked the limits of his physical reach. The materials which he employed were water, chalk, powder (flour) and paint (black and white). He made five separate statements using each of the materials, working in all for four days. In order to reduce the drama of the work (a character that Brisley abhors) the fifth frame was a mixture of black and white. On the last day the audience was large and Brisley avoided a climax to the work by jumping into the lake and swimming, replicating his drawing action in water, another medium.</t>
     </r>
   </si>
@@ -1039,6 +1241,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Artist Project Peterlee</t>
     </r>
@@ -1059,6 +1263,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Living with Practical Realities</t>
     </r>
@@ -1145,6 +1351,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Give and Take</t>
     </r>
@@ -1171,6 +1379,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>No Black in the Union Jack</t>
     </r>
@@ -1182,10 +1392,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">No Black in the Union Jack. </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">The work involved participants from the Elimu Paddington Arts Mas band, who he had designed carnival bands for previously, and the band was joined by other volunteers from Tate. The costuming of this particular event drew from the 2011 London riots, and designed to look simultaneously like tropical hummingbirds, and riot-police gear, highlighting the tensions around Carnival. The participants processed from St Paul's, across the Millenium Bridge, and into the Turbine Hall. </t>
     </r>
   </si>
@@ -1235,6 +1452,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Strangers</t>
     </r>
@@ -1261,6 +1480,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>1000</t>
     </r>
@@ -1275,10 +1496,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1000. </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">This work involved 1000 participants, from various groups and institutions, volunteering to scream continuously and simultaneously for one minute while standing on the Turbine Hall Bridge. Pivi's volunteers were from various different universities, social and political groups, and organisations, including members of the 'Free Tibet' movement with whom Pivi had worked closely on other occasions. Pivi's overarching aim in the bringing together of such a large group of volunteers, from different backgrounds and causes, was to briefly bring together the issues of life and art. </t>
     </r>
   </si>
@@ -1304,6 +1532,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">The Quiet in the Land: Everyday Life, Contemporary Art, and Project Axe' </t>
     </r>
@@ -1315,6 +1545,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Go and return Necessaire</t>
     </r>
@@ -1338,6 +1570,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>One Pound Turbo Market</t>
     </r>
@@ -1352,10 +1586,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">One Pound Turbo Market (you'll have a good time) </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">transformed the Turbine Hall into a colourful, performance-filled market. Selling the 'props' of the performance at a flat rate of £1 to visitors to the museum, they became participants in the work, where the consumption of the objects, all valued equally in the frame of the artwork, was integral to the content of the work. </t>
     </r>
   </si>
@@ -1375,6 +1616,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Clap in Time (All the People at Tate Modern) </t>
     </r>
@@ -1386,10 +1629,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Clap in Time (All the People at Tate Modern)</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>. In this, Beier and Lund had contacted Tate staff members prior to the performance, and advertised the event around the museum, although there was no direct invitation to participate. At 4.30pm, people across the museum stopped whatever they were doing and began to clap; this had initially been imagined as a five minute performance, but expanded organically to 15 minutes. There was a split within the museum between those who were aware and initiated the clapping, those who began to join in, and those who did not participate, and just observed the actions of others.  </t>
     </r>
   </si>
@@ -1412,6 +1662,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Funk Lessons</t>
     </r>
@@ -1423,10 +1675,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Funk Lessons</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> with groups of various sizes. The workshops were intended to explore funk music as part of African American culture, and the dance style around it as a collective, participatory practice in comparison to other forms of social dancing. The participants were encouraged not only to discuss the music and learn the dance styles, but to engage in this practive as a collective. </t>
     </r>
   </si>
@@ -1452,6 +1711,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Sanatorium</t>
     </r>
@@ -1463,10 +1724,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Sanatorium </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">provided exhibition visitors with the opportunity to undergo therapy, either individually or as part of a group. The installation consisted of 16 rooms with different types of therapy and treatment, all designed around the notion of 'Sociatry', a way to cure the ills of those living in urban spaces. Visitors participated in the therapies on offer and could then respond with how they felt these had helped with their particular questions or issues. Those acting as the therapists were, in fact, non-professionals, giving a double layer of participation to this particular artwork. </t>
     </r>
   </si>
@@ -1486,6 +1754,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Camden Communality</t>
     </r>
@@ -1518,6 +1788,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>105+dB</t>
     </r>
@@ -1550,6 +1822,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>105 Women</t>
     </r>
@@ -1597,10 +1871,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Consequences of a Gesture</t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve"> </t>
     </r>
   </si>
@@ -1611,10 +1892,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Consequences of a Gesture </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">brought together around 800 participants from Mexican American or African American communities to march through the streets of Chicago. An attempt to create a community intervention, and remove material objects from the centre of art making, the carnival-style march was also a comment on the University of Chicago's purchase of real estate from the area which displaced local merchants as a result. </t>
     </r>
   </si>
@@ -1643,6 +1931,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">The Workers Make the Candy of their Dreams </t>
     </r>
@@ -1669,6 +1959,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Flood: A volunteer network for active participation in healthcare</t>
     </r>
@@ -1716,6 +2008,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Unburning Freedom Hall</t>
     </r>
@@ -1727,10 +2021,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Unburning Freedom Hall </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">was part sculptural installation and part participatory story-telling project. Central to the installation was a large peace table, suspended in the space, and surrounded by 540 tonnes of crushed glass. Alongside this, Ukeles collected around 2000 stories of 'unburnings', stories from local sanitation and street maintenance workers, firefighters, and high school students, in the form of self-recorded videos which allowed the participants to reflect on significant events in their life. The work was a response to the 1838 burning of Pennsylvania Hall in Philadelphia, a meeting place for abolitionists which was burnt down after just three days. </t>
     </r>
   </si>
@@ -1753,6 +2054,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Watts House Project</t>
     </r>
@@ -1764,19 +2067,33 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Project Row Houses </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">in Texas, for 'Uncommon Sense', Rich Lowe exhibited documents and examples from his new community building project </t>
     </r>
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Watts House Project. </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">Although not fully realised until 2008, in the 1997 exhibition, Lowe presented documents and plans from residents and city planners, including a potential artist-in-residence programme. The project was carefully designed to integrate the artist's work with the needs and wishes of the community, eventually turning the housing into live-in artworks. The project was eventually realised with artist Edgar Arceneaux as director in 2008. </t>
     </r>
   </si>
@@ -1793,6 +2110,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Bataille Monument</t>
     </r>
@@ -1822,6 +2141,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Brodno</t>
     </r>
@@ -1851,6 +2172,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Common Task</t>
     </r>
@@ -1862,10 +2185,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Brodno - </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">participation from  his neighbours. In this case, a small group were given golden spacesuits, which made them stand out at strangers or outsiders from those local to the area. In 2009, the group travelled to Oxford, where documentation of their previous travels was on display as part of an exhibition of the same name. On this occasion, members of the public in Oxford, visiting the museum, were also invited to participate in the journey. Visitors to the museum could board a recreated spaceship, try on one of the gold spacesuits, and participate in the groups activities, including exploring the local countryside. </t>
     </r>
   </si>
@@ -1900,6 +2230,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">One &amp; Other </t>
     </r>
@@ -1911,10 +2243,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">One &amp; Other </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">was Antony Gormley's project for the empty 'Fourth Plint' in Trafalgar Square, a space surrounded by public sculpture and framed by the National Gallery. His response to the commission to fill the space was to engage the public in participation; for 100 days, the plinth was occupied - for one hour at a time - by members of the public. They were able to talk about any subject which interested them, undertake any activity they wanted, and interact with passers by as they wished. </t>
     </r>
   </si>
@@ -1937,6 +2276,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Visual Poetry</t>
     </r>
@@ -1951,10 +2292,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Visual Poetry </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">as part of UBS Openings: Saturday Live Word Sculpture at Tate Modern. Beginning with Partum throwing paper letter cutouts into the Turbine  Hall, and rearranging these into words or phrases, or into shapes and patterns on the floor. After Partum's solo performance, members of the public participated in the work, using the words and letters to create shortform poems, or to simply write their names, and then using their bodies to create patterns amongst them. Partum envisioned the work as a struggle against patriarchal language rules, and making the museum a space in which to explore the freedom and fluidity of languge without rules. </t>
     </r>
   </si>
@@ -1971,6 +2319,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Parangoles </t>
     </r>
@@ -1985,10 +2335,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Parangoles </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">was presented. Working alongside the London School of Samba, Tate invited teachers to instruct the public in samba movements, offering short workshops for those on the Level 4 concourse, and then performing themselves in the Turbine Hall. Public participants then created the 'Parangoles', made from a folded 3 metre cloth, following instructions written by Oiticica, and circulated these amongst themselves. They were asked, while wearing them, to consider how their movement changed the parangoles, and how the parangoles changed their movement. This extension of Oiticica's original work with groups in Brazil, the Tate iteration of the 'Parangoles' project sought to create a community through a shared exploration of movement and participation. </t>
     </r>
   </si>
@@ -2008,6 +2365,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Did you ever want to be someone else? </t>
     </r>
@@ -2019,10 +2378,17 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Did you ever want to be someone else? </t>
     </r>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t xml:space="preserve">as part of the 2007 Long Weekend at Tate modern. Involving approximately 100 participants, who had answered a newspaper advert, the work involved the particpants wearing specially adapted masks and following a series of instructions sent to them by text message over the course of an hour. The artists were particularly interested in exploring how people's social behaviours and actions changed, individually and as a group, with a loss or lack of identity. </t>
     </r>
   </si>
@@ -2045,6 +2411,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Tatlin's Whisper #5</t>
     </r>
@@ -2074,6 +2442,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Group of Persons Facing a Wall</t>
     </r>
@@ -2091,6 +2461,8 @@
     <r>
       <rPr>
         <i/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>, Slowwalk for Ai Weiwei</t>
     </r>
@@ -2100,80 +2472,127 @@
   </si>
   <si>
     <t>51.5075953,-0.1015458</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Poland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="m/yyyy"/>
-    <numFmt numFmtId="165" formatCode="d mmmm yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\ mmmm\ yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="167" formatCode="mmmm yyyy"/>
+    <numFmt numFmtId="167" formatCode="mmmm\ yyyy"/>
     <numFmt numFmtId="168" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
-      <b/>
-      <sz val="10.0"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
-      <color rgb="FF00FFFF"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF00FFFF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF404041"/>
       <name val="Helvetica"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2181,7 +2600,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2202,6 +2621,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -2210,160 +2630,475 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="38">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1026" name="Rectangle 2" hidden="1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="C1" sqref="C1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C49" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.57"/>
-    <col customWidth="1" min="2" max="3" width="20.0"/>
-    <col customWidth="1" min="4" max="5" width="10.57"/>
-    <col customWidth="1" min="6" max="6" width="61.57"/>
-    <col customWidth="1" min="7" max="7" width="29.0"/>
-    <col customWidth="1" min="8" max="24" width="17.29"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="61.5703125" customWidth="1"/>
+    <col min="7" max="7" width="29" customWidth="1"/>
+    <col min="8" max="25" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1">
+    <row r="1" spans="1:25" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2391,51 +3126,54 @@
       <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="6"/>
-    </row>
-    <row r="2">
+      <c r="Y1" s="6"/>
+    </row>
+    <row r="2" spans="1:25" ht="278.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -2457,24 +3195,27 @@
       <c r="I2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3">
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:25" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -2498,25 +3239,28 @@
       <c r="I3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4">
+      <c r="R3" s="12"/>
+    </row>
+    <row r="4" spans="1:25" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>47</v>
       </c>
@@ -2527,10 +3271,10 @@
         <v>49</v>
       </c>
       <c r="D4" s="1">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="E4" s="1">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>50</v>
@@ -2542,25 +3286,28 @@
       <c r="I4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5">
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:25" ht="108" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>56</v>
@@ -2582,21 +3329,24 @@
       <c r="I5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6">
+      <c r="R5" s="12"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -2613,9 +3363,10 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="16"/>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="7">
+      <c r="K6" s="16"/>
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>36</v>
       </c>
@@ -2632,9 +3383,10 @@
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="16"/>
-      <c r="Q7" s="12"/>
-    </row>
-    <row r="8">
+      <c r="K7" s="16"/>
+      <c r="R7" s="12"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -2651,9 +3403,10 @@
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
       <c r="J8" s="16"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9">
+      <c r="K8" s="16"/>
+      <c r="R8" s="12"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
@@ -2669,9 +3422,10 @@
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
       <c r="J9" s="16"/>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10">
+      <c r="K9" s="16"/>
+      <c r="R9" s="12"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -2687,9 +3441,10 @@
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="16"/>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11">
+      <c r="K10" s="16"/>
+      <c r="R10" s="12"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
@@ -2705,9 +3460,10 @@
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
       <c r="J11" s="16"/>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12">
+      <c r="K11" s="16"/>
+      <c r="R11" s="12"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
@@ -2723,9 +3479,10 @@
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
       <c r="J12" s="16"/>
-      <c r="Q12" s="12"/>
-    </row>
-    <row r="13">
+      <c r="K12" s="16"/>
+      <c r="R12" s="12"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -2742,9 +3499,10 @@
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
       <c r="J13" s="16"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14">
+      <c r="K13" s="16"/>
+      <c r="R13" s="12"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -2761,9 +3519,10 @@
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
       <c r="J14" s="16"/>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15">
+      <c r="K14" s="16"/>
+      <c r="R14" s="12"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -2779,9 +3538,10 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="16"/>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16">
+      <c r="K15" s="16"/>
+      <c r="R15" s="12"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
@@ -2797,9 +3557,10 @@
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
       <c r="J16" s="16"/>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17">
+      <c r="K16" s="16"/>
+      <c r="R16" s="12"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -2815,9 +3576,10 @@
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
       <c r="J17" s="16"/>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18">
+      <c r="K17" s="16"/>
+      <c r="R17" s="12"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -2834,9 +3596,10 @@
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
       <c r="J18" s="16"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19">
+      <c r="K18" s="16"/>
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -2852,9 +3615,10 @@
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="16"/>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20">
+      <c r="K19" s="16"/>
+      <c r="R19" s="12"/>
+    </row>
+    <row r="20" spans="1:18" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
@@ -2871,9 +3635,10 @@
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="16"/>
-      <c r="Q20" s="12"/>
-    </row>
-    <row r="21">
+      <c r="K20" s="16"/>
+      <c r="R20" s="12"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
@@ -2890,9 +3655,10 @@
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="16"/>
-      <c r="Q21" s="12"/>
-    </row>
-    <row r="22">
+      <c r="K21" s="16"/>
+      <c r="R21" s="12"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
@@ -2908,9 +3674,10 @@
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="16"/>
-      <c r="Q22" s="12"/>
-    </row>
-    <row r="23">
+      <c r="K22" s="16"/>
+      <c r="R22" s="12"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
@@ -2927,9 +3694,10 @@
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="16"/>
-      <c r="Q23" s="12"/>
-    </row>
-    <row r="24">
+      <c r="K23" s="16"/>
+      <c r="R23" s="12"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
@@ -2946,9 +3714,10 @@
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="16"/>
-      <c r="Q24" s="12"/>
-    </row>
-    <row r="25">
+      <c r="K24" s="16"/>
+      <c r="R24" s="12"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>36</v>
       </c>
@@ -2964,9 +3733,10 @@
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="16"/>
-      <c r="Q25" s="12"/>
-    </row>
-    <row r="26">
+      <c r="K25" s="16"/>
+      <c r="R25" s="12"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2982,9 +3752,10 @@
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="16"/>
-      <c r="Q26" s="12"/>
-    </row>
-    <row r="27">
+      <c r="K26" s="16"/>
+      <c r="R26" s="12"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
@@ -3000,9 +3771,10 @@
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="16"/>
-      <c r="Q27" s="12"/>
-    </row>
-    <row r="28">
+      <c r="K27" s="16"/>
+      <c r="R27" s="12"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
@@ -3018,9 +3790,10 @@
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="16"/>
-      <c r="Q28" s="12"/>
-    </row>
-    <row r="29">
+      <c r="K28" s="16"/>
+      <c r="R28" s="12"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>36</v>
       </c>
@@ -3037,9 +3810,10 @@
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="16"/>
-      <c r="Q29" s="12"/>
-    </row>
-    <row r="30">
+      <c r="K29" s="16"/>
+      <c r="R29" s="12"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>36</v>
       </c>
@@ -3056,9 +3830,10 @@
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="16"/>
-      <c r="Q30" s="12"/>
-    </row>
-    <row r="31">
+      <c r="K30" s="16"/>
+      <c r="R30" s="12"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -3074,9 +3849,10 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="16"/>
-      <c r="Q31" s="12"/>
-    </row>
-    <row r="32">
+      <c r="K31" s="16"/>
+      <c r="R31" s="12"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -3093,9 +3869,10 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="16"/>
-      <c r="Q32" s="12"/>
-    </row>
-    <row r="33">
+      <c r="K32" s="16"/>
+      <c r="R32" s="12"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="1" t="s">
         <v>91</v>
@@ -3109,9 +3886,10 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="16"/>
-      <c r="Q33" s="12"/>
-    </row>
-    <row r="34">
+      <c r="K33" s="16"/>
+      <c r="R33" s="12"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="18" t="s">
         <v>93</v>
@@ -3125,9 +3903,10 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="16"/>
-      <c r="Q34" s="12"/>
-    </row>
-    <row r="35">
+      <c r="K34" s="16"/>
+      <c r="R34" s="12"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
@@ -3143,9 +3922,10 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="16"/>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36">
+      <c r="K35" s="16"/>
+      <c r="R35" s="12"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
@@ -3161,9 +3941,10 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="16"/>
-      <c r="Q36" s="12"/>
-    </row>
-    <row r="37">
+      <c r="K36" s="16"/>
+      <c r="R36" s="12"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="B37" s="1" t="s">
         <v>97</v>
@@ -3178,9 +3959,10 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="16"/>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38">
+      <c r="K37" s="16"/>
+      <c r="R37" s="12"/>
+    </row>
+    <row r="38" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -3196,9 +3978,10 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="16"/>
-      <c r="Q38" s="12"/>
-    </row>
-    <row r="39">
+      <c r="K38" s="16"/>
+      <c r="R38" s="12"/>
+    </row>
+    <row r="39" spans="1:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -3214,9 +3997,10 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="16"/>
-      <c r="Q39" s="12"/>
-    </row>
-    <row r="40">
+      <c r="K39" s="16"/>
+      <c r="R39" s="12"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>36</v>
       </c>
@@ -3227,9 +4011,9 @@
         <v>103</v>
       </c>
       <c r="F40" s="19"/>
-      <c r="Q40" s="12"/>
-    </row>
-    <row r="41">
+      <c r="R40" s="12"/>
+    </row>
+    <row r="41" spans="1:25" ht="293.25" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
@@ -3240,10 +4024,10 @@
         <v>103</v>
       </c>
       <c r="D41" s="21">
-        <v>25751.0</v>
+        <v>25751</v>
       </c>
       <c r="E41" s="21">
-        <v>25831.0</v>
+        <v>25831</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>105</v>
@@ -3255,19 +4039,22 @@
       <c r="I41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J41" s="14" t="s">
+      <c r="J41" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K41" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="L41" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="O41" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Q41" s="12"/>
-      <c r="V41" s="1"/>
-    </row>
-    <row r="42">
+      <c r="R41" s="12"/>
+      <c r="W41" s="1"/>
+    </row>
+    <row r="42" spans="1:25" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>36</v>
       </c>
@@ -3278,7 +4065,7 @@
         <v>110</v>
       </c>
       <c r="D42" s="1">
-        <v>1970.0</v>
+        <v>1970</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="22" t="s">
@@ -3291,35 +4078,38 @@
       <c r="I42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="J42" s="14" t="s">
+      <c r="J42" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="K42" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="L42" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="O42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1" t="s">
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="Q42" s="12"/>
-      <c r="V42" s="1" t="s">
+      <c r="R42" s="12"/>
+      <c r="W42" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F43" s="19"/>
-      <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="Q43" s="12"/>
-    </row>
-    <row r="44">
+      <c r="M43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="R43" s="12"/>
+    </row>
+    <row r="44" spans="1:25" ht="168" x14ac:dyDescent="0.2">
       <c r="A44" s="23" t="s">
         <v>47</v>
       </c>
@@ -3333,7 +4123,7 @@
         <v>118</v>
       </c>
       <c r="E44" s="24">
-        <v>41335.0</v>
+        <v>41335</v>
       </c>
       <c r="F44" s="25" t="s">
         <v>119</v>
@@ -3345,35 +4135,38 @@
       <c r="I44" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="J44" s="27" t="s">
+      <c r="J44" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K44" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="K44" s="23" t="s">
+      <c r="L44" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="L44" s="23" t="s">
+      <c r="M44" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="M44" s="23" t="s">
+      <c r="N44" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="N44" s="23" t="s">
+      <c r="O44" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23" t="s">
+      <c r="P44" s="23"/>
+      <c r="Q44" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="Q44" s="28"/>
-      <c r="R44" s="29"/>
+      <c r="R44" s="28"/>
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
       <c r="U44" s="29"/>
       <c r="V44" s="29"/>
       <c r="W44" s="29"/>
       <c r="X44" s="29"/>
-    </row>
-    <row r="45">
+      <c r="Y44" s="29"/>
+    </row>
+    <row r="45" spans="1:25" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>47</v>
       </c>
@@ -3384,7 +4177,7 @@
         <v>26</v>
       </c>
       <c r="D45" s="1">
-        <v>1961.0</v>
+        <v>1961</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>127</v>
@@ -3399,33 +4192,34 @@
       <c r="I45" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="J45" s="16"/>
+      <c r="L45" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="N45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="O45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1" t="s">
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="Q45" s="31" t="s">
+      <c r="R45" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="T45" s="1" t="s">
+      <c r="U45" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="V45" s="1" t="s">
+      <c r="W45" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:25" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>47</v>
       </c>
@@ -3436,10 +4230,10 @@
         <v>137</v>
       </c>
       <c r="D46" s="1">
-        <v>1914.0</v>
+        <v>1914</v>
       </c>
       <c r="E46" s="1">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="F46" s="30" t="s">
         <v>138</v>
@@ -3447,17 +4241,17 @@
       <c r="G46" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="K46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="1" t="s">
+      <c r="L46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="U46" s="1" t="s">
+      <c r="V46" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:25" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
@@ -3468,10 +4262,10 @@
         <v>137</v>
       </c>
       <c r="D47" s="1">
-        <v>1934.0</v>
+        <v>1934</v>
       </c>
       <c r="E47" s="1">
-        <v>2003.0</v>
+        <v>2003</v>
       </c>
       <c r="F47" s="30" t="s">
         <v>141</v>
@@ -3479,17 +4273,17 @@
       <c r="G47" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="K47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="1" t="s">
+      <c r="L47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="U47" s="1" t="s">
+      <c r="V47" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:25" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
@@ -3500,7 +4294,7 @@
         <v>137</v>
       </c>
       <c r="D48" s="1">
-        <v>1963.0</v>
+        <v>1963</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>144</v>
@@ -3511,19 +4305,19 @@
       <c r="G48" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="N48" s="1"/>
-      <c r="Q48" s="31" t="s">
+      <c r="O48" s="1"/>
+      <c r="R48" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="S48" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1" t="s">
+      <c r="U48" s="1"/>
+      <c r="V48" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:23" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
@@ -3546,28 +4340,31 @@
       <c r="I49" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="J49" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="K49" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K49" s="1" t="s">
+      <c r="L49" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="N49" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="O49" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1" t="s">
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="1" t="s">
+      <c r="R49" s="12"/>
+      <c r="S49" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:23" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>47</v>
       </c>
@@ -3578,2068 +4375,2216 @@
         <v>26</v>
       </c>
       <c r="D50" s="32">
-        <v>42312.0</v>
-      </c>
-      <c r="E50" s="1" t="s">
+        <v>42312</v>
+      </c>
+      <c r="E50" s="37">
+        <v>42112</v>
+      </c>
+      <c r="F50" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="F50" s="30" t="s">
+      <c r="G50" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="J50" s="1" t="s">
+      <c r="L50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L50" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N50" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q50" s="31" t="s">
+      <c r="R50" s="31" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:23" ht="191.25" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>92</v>
       </c>
       <c r="D51" s="32">
-        <v>42283.0</v>
+        <v>42283</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="J51" s="1" t="s">
+      <c r="L51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K51" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L51" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N51" s="1" t="s">
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q51" s="12"/>
-    </row>
-    <row r="52">
+      <c r="R51" s="12"/>
+    </row>
+    <row r="52" spans="1:23" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D52" s="1">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="J52" s="1" t="s">
+      <c r="L52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R52" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q52" s="31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53">
+    </row>
+    <row r="53" spans="1:23" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D53" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E53" s="32">
+        <v>41123</v>
+      </c>
+      <c r="F53" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="E53" s="32">
-        <v>41123.0</v>
-      </c>
-      <c r="F53" s="30" t="s">
+      <c r="G53" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="J53" s="1" t="s">
+      <c r="J53" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1" t="s">
+      <c r="R53" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="Q53" s="31" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="54">
+    </row>
+    <row r="54" spans="1:23" ht="102" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D54" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="30" t="s">
         <v>186</v>
-      </c>
-      <c r="F54" s="30" t="s">
-        <v>187</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="J54" s="1" t="s">
+      <c r="L54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N54" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L54" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M54" s="1" t="s">
+      <c r="O54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="N54" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q54" s="31"/>
-    </row>
-    <row r="55">
+      <c r="R54" s="31"/>
+    </row>
+    <row r="55" spans="1:23" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D55" s="1">
-        <v>1993.0</v>
+        <v>1993</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F55" s="30" t="s">
         <v>193</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>194</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="K55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J55" s="16" t="s">
+        <v>455</v>
+      </c>
+      <c r="L55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="O55" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="Q55" s="12"/>
-    </row>
-    <row r="56">
+      <c r="R55" s="12"/>
+    </row>
+    <row r="56" spans="1:23" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F56" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="F56" s="30" t="s">
+      <c r="G56" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>199</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J56" s="18" t="s">
+      <c r="J56" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K56" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="N56" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="O56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="N56" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O56" s="1"/>
-      <c r="P56" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q56" s="12"/>
-    </row>
-    <row r="57">
+      <c r="R56" s="12"/>
+    </row>
+    <row r="57" spans="1:23" ht="306" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D57" s="1">
-        <v>1973.0</v>
+        <v>1973</v>
       </c>
       <c r="E57" s="1">
-        <v>1975.0</v>
+        <v>1975</v>
       </c>
       <c r="F57" s="30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>205</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="J57" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K57" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J57" s="1" t="s">
+      <c r="L57" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="K57" s="1" t="s">
+      <c r="M57" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N57" s="1">
+        <v>150</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="L57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="M57" s="1">
-        <v>150.0</v>
-      </c>
-      <c r="N57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q57" s="12"/>
-    </row>
-    <row r="58">
+      <c r="R57" s="12"/>
+    </row>
+    <row r="58" spans="1:23" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D58" s="33">
-        <v>27729.0</v>
+        <v>27729</v>
       </c>
       <c r="E58" s="33">
-        <v>27851.0</v>
+        <v>27851</v>
       </c>
       <c r="F58" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="G58" s="10" t="s">
         <v>212</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>213</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K58" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="J58" s="14" t="s">
+      <c r="O58" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1" t="s">
+      <c r="R58" s="12"/>
+      <c r="W58" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="Q58" s="12"/>
-      <c r="V58" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="59">
+    </row>
+    <row r="59" spans="1:23" ht="293.25" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D59" s="1">
-        <v>1966.0</v>
+        <v>1966</v>
       </c>
       <c r="E59" s="1">
-        <v>1982.0</v>
+        <v>1982</v>
       </c>
       <c r="F59" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>218</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>219</v>
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J59" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K59" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J59" s="1" t="s">
+      <c r="L59" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R59" s="12"/>
+      <c r="W59" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K59" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L59" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N59" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q59" s="12"/>
-      <c r="V59" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="60">
+    </row>
+    <row r="60" spans="1:23" ht="267.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D60" s="1">
-        <v>1977.0</v>
+        <v>1977</v>
       </c>
       <c r="F60" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>224</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>225</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>456</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="J60" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K60" s="1" t="s">
+      <c r="L60" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="O60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="Q60" s="12"/>
-      <c r="V60" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="61">
+      <c r="R60" s="12"/>
+      <c r="W60" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D61" s="1">
-        <v>1976.0</v>
+        <v>1976</v>
       </c>
       <c r="E61" s="1">
-        <v>1977.0</v>
+        <v>1977</v>
       </c>
       <c r="F61" s="30"/>
       <c r="G61" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K61" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="J61" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="N61" s="1" t="s">
+      <c r="L61" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Q61" s="12"/>
-      <c r="V61" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="62">
+      <c r="R61" s="12"/>
+      <c r="W61" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" ht="293.25" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D62" s="1">
-        <v>1977.0</v>
+        <v>1977</v>
       </c>
       <c r="F62" s="30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G62" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="H62" s="34"/>
       <c r="I62" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="J62" s="1" t="s">
+      <c r="L62" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="L62" s="1" t="s">
+      <c r="N62" s="1">
+        <v>1</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="M62" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="N62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q62" s="12"/>
-    </row>
-    <row r="63">
+      <c r="R62" s="12"/>
+    </row>
+    <row r="63" spans="1:23" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D63" s="1">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F63" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G63" s="10" t="s">
         <v>240</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>241</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="J63" s="1" t="s">
+      <c r="L63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R63" s="12"/>
+      <c r="W63" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="K63" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N63" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q63" s="12"/>
-      <c r="V63" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="64">
+    </row>
+    <row r="64" spans="1:23" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D64" s="1">
-        <v>1993.0</v>
+        <v>1993</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F64" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="G64" s="10" t="s">
         <v>246</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="J64" s="1" t="s">
+      <c r="R64" s="12"/>
+      <c r="W64" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="Q64" s="12"/>
-      <c r="V64" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="65">
+    </row>
+    <row r="65" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B65" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F65" s="30" t="s">
         <v>252</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="G65" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K65" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="J65" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L65" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N65" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1" t="s">
+      <c r="R65" s="12"/>
+      <c r="V65" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="Q65" s="12"/>
-      <c r="U65" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="W65" s="1"/>
-    </row>
-    <row r="66">
+      <c r="X65" s="1"/>
+    </row>
+    <row r="66" spans="1:24" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F66" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="G66" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J66" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K66" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K66" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="M66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="N66" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="N66" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1" t="s">
+      <c r="R66" s="12"/>
+      <c r="X66" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="Q66" s="12"/>
-      <c r="W66" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="67">
+    </row>
+    <row r="67" spans="1:24" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F67" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="G67" s="10" t="s">
         <v>265</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>266</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="J67" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="J67" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K67" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>200</v>
-      </c>
       <c r="L67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="N67" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="R67" s="12"/>
+      <c r="X67" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q67" s="12"/>
-      <c r="W67" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="68">
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F68" s="30"/>
-      <c r="Q68" s="12"/>
-    </row>
-    <row r="69">
+      <c r="R68" s="12"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F69" s="30"/>
-      <c r="Q69" s="12"/>
-    </row>
-    <row r="70">
+      <c r="R69" s="12"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>64</v>
       </c>
       <c r="F70" s="30"/>
-      <c r="Q70" s="12"/>
-    </row>
-    <row r="71">
+      <c r="R70" s="12"/>
+    </row>
+    <row r="71" spans="1:24" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E71" s="32">
+        <v>42436</v>
+      </c>
+      <c r="F71" s="30" t="s">
         <v>273</v>
       </c>
-      <c r="E71" s="32">
-        <v>42436.0</v>
-      </c>
-      <c r="F71" s="30" t="s">
+      <c r="G71" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="G71" s="10" t="s">
+      <c r="I71" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="J71" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K71" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P71" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="J71" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L71" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N71" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O71" s="1" t="s">
+      <c r="Q71" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="P71" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q71" s="12"/>
-    </row>
-    <row r="72">
+      <c r="R71" s="12"/>
+    </row>
+    <row r="72" spans="1:24" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D72" s="32">
-        <v>41307.0</v>
+        <v>41307</v>
       </c>
       <c r="E72" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F72" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="F72" s="30" t="s">
+      <c r="I72" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="J72" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="J72" s="1" t="s">
+      <c r="L72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P72" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R72" s="12"/>
+      <c r="X72" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="K72" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L72" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N72" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q72" s="12"/>
-      <c r="W72" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="73">
+    </row>
+    <row r="73" spans="1:24" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="G73" s="10" t="s">
+      <c r="H73" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="H73" s="10" t="s">
+      <c r="I73" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="J73" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K73" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N73" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="J73" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L73" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M73" s="1" t="s">
+      <c r="O73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P73" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q73" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="N73" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O73" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q73" s="12"/>
-    </row>
-    <row r="74">
+      <c r="R73" s="12"/>
+    </row>
+    <row r="74" spans="1:24" ht="51" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F74" s="30"/>
-      <c r="Q74" s="12"/>
-    </row>
-    <row r="75">
+      <c r="R74" s="12"/>
+    </row>
+    <row r="75" spans="1:24" ht="178.5" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D75" s="1">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="F75" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="I75" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="J75" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="K75" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="J75" s="1" t="s">
+      <c r="L75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M75" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="K75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L75" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="M75" s="1">
-        <v>24.0</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>170</v>
+      <c r="N75" s="1">
+        <v>24</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q75" s="12"/>
-    </row>
-    <row r="76">
+        <v>169</v>
+      </c>
+      <c r="P75" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R75" s="12"/>
+    </row>
+    <row r="76" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F76" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="G76" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="G76" s="10" t="s">
+      <c r="H76" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="H76" s="10" t="s">
+      <c r="I76" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="J76" s="18" t="s">
+      <c r="J76" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K76" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K76" s="1" t="s">
+      <c r="L76" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L76" s="1" t="s">
+      <c r="M76" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N76" s="1" t="s">
+      <c r="O76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="O76" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q76" s="12"/>
-    </row>
-    <row r="77">
+      <c r="P76" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R76" s="12"/>
+    </row>
+    <row r="77" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D77" s="32">
-        <v>39358.0</v>
+        <v>39358</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="G77" s="10" t="s">
+      <c r="H77" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>308</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="J77" s="18" t="s">
+      <c r="J77" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K77" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K77" s="1" t="s">
+      <c r="L77" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L77" s="1" t="s">
+      <c r="M77" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N77" s="1" t="s">
+      <c r="O77" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="O77" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="P77" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q77" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="R77" s="12"/>
+      <c r="X77" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="Q77" s="12"/>
-      <c r="W77" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="78">
+    </row>
+    <row r="78" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D78" s="1">
-        <v>1982.0</v>
+        <v>1982</v>
       </c>
       <c r="E78" s="1">
-        <v>1984.0</v>
+        <v>1984</v>
       </c>
       <c r="F78" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="G78" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="G78" s="10" t="s">
+      <c r="H78" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="H78" s="10" t="s">
+      <c r="I78" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="J78" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="J78" s="1" t="s">
+      <c r="L78" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P78" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="K78" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="O78" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q78" s="12"/>
-    </row>
-    <row r="79">
+      <c r="R78" s="12"/>
+    </row>
+    <row r="79" spans="1:24" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D79" s="32">
-        <v>41371.0</v>
+        <v>41371</v>
       </c>
       <c r="E79" s="32">
-        <v>41403.0</v>
+        <v>41403</v>
       </c>
       <c r="F79" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="G79" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="G79" s="10" t="s">
+      <c r="I79" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="J79" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K79" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="J79" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="K79" s="1" t="s">
+      <c r="L79" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L79" s="1" t="s">
+      <c r="M79" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N79" s="1" t="s">
+      <c r="O79" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O79" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q79" s="12"/>
-    </row>
-    <row r="80">
+      <c r="P79" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R79" s="12"/>
+    </row>
+    <row r="80" spans="1:24" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="F80" s="30" t="s">
+      <c r="G80" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="I80" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="J80" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="J80" s="1" t="s">
+      <c r="L80" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P80" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q80" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="K80" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L80" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O80" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="P80" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q80" s="12"/>
-    </row>
-    <row r="81">
+      <c r="R80" s="12"/>
+    </row>
+    <row r="81" spans="1:24" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F81" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="F81" s="30" t="s">
+      <c r="G81" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="I81" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="J81" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K81" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="J81" s="1" t="s">
+      <c r="L81" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P81" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="K81" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O81" s="1" t="s">
+      <c r="R81" s="12"/>
+      <c r="W81" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="Q81" s="12"/>
-      <c r="V81" s="1" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="82">
+    </row>
+    <row r="82" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D82" s="35">
-        <v>42228.0</v>
+        <v>42228</v>
       </c>
       <c r="E82" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F82" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="F82" s="30" t="s">
+      <c r="G82" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="G82" s="10" t="s">
+      <c r="I82" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="J82" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="J82" s="1" t="s">
+      <c r="L82" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="O82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R82" s="12"/>
+      <c r="W82" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="K82" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L82" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O82" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q82" s="12"/>
-      <c r="V82" s="1" t="s">
+    </row>
+    <row r="83" spans="1:24" ht="102" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="B83" s="20" t="s">
         <v>346</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>347</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D83" s="1">
-        <v>1991.0</v>
+        <v>1991</v>
       </c>
       <c r="E83" s="1">
-        <v>1993.0</v>
+        <v>1993</v>
       </c>
       <c r="F83" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="I83" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="J83" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K83" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="K83" s="1" t="s">
+      <c r="L83" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L83" s="1" t="s">
+      <c r="M83" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N83" s="1" t="s">
+      <c r="O83" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O83" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q83" s="12"/>
-    </row>
-    <row r="84">
+      <c r="P83" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R83" s="12"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>95</v>
       </c>
       <c r="F84" s="30"/>
-      <c r="Q84" s="12"/>
-    </row>
-    <row r="85">
+      <c r="R84" s="12"/>
+    </row>
+    <row r="85" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D85" s="33">
-        <v>34121.0</v>
+        <v>34121</v>
       </c>
       <c r="F85" s="30" t="s">
+        <v>352</v>
+      </c>
+      <c r="G85" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="I85" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="J85" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K85" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="J85" s="1" t="s">
+      <c r="L85" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N85" s="1">
+        <v>800</v>
+      </c>
+      <c r="O85" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="K85" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="M85" s="1">
-        <v>800.0</v>
-      </c>
-      <c r="N85" s="1" t="s">
+      <c r="P85" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R85" s="12"/>
+      <c r="W85" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="O85" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q85" s="12"/>
-      <c r="V85" s="1" t="s">
+      <c r="X85" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="W85" s="1" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="86">
+    </row>
+    <row r="86" spans="1:24" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D86" s="33">
-        <v>34001.0</v>
+        <v>34001</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="G86" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="G86" s="10" t="s">
+      <c r="I86" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="J86" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="J86" s="1" t="s">
+      <c r="L86" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N86" s="1">
+        <v>12</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P86" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="R86" s="12"/>
+      <c r="W86" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="X86" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="K86" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M86" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="N86" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q86" s="12"/>
-      <c r="V86" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="W86" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="87">
+    </row>
+    <row r="87" spans="1:24" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D87" s="1">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="E87" s="1">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="F87" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="G87" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="I87" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="J87" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K87" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="J87" s="1" t="s">
+      <c r="L87" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N87" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="K87" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M87" s="1" t="s">
+      <c r="O87" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="R87" s="12"/>
+      <c r="W87" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="X87" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="N87" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O87" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q87" s="12"/>
-      <c r="V87" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="W87" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="88">
+    </row>
+    <row r="88" spans="1:24" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D88" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E88" s="32">
+        <v>35588</v>
+      </c>
+      <c r="F88" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="E88" s="32">
-        <v>35588.0</v>
-      </c>
-      <c r="F88" s="30" t="s">
+      <c r="G88" s="10" t="s">
         <v>375</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="I88" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="J88" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="J88" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q88" s="12"/>
-    </row>
-    <row r="89">
+      <c r="R88" s="12"/>
+    </row>
+    <row r="89" spans="1:24" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E89" s="32">
-        <v>35588.0</v>
+        <v>35588</v>
       </c>
       <c r="F89" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="G89" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="G89" s="10" t="s">
+      <c r="I89" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J89" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K89" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J89" s="1" t="s">
+      <c r="L89" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P89" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R89" s="12"/>
+      <c r="W89" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="K89" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L89" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N89" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q89" s="12"/>
-      <c r="V89" s="1" t="s">
+      <c r="X89" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="W89" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="90">
+    </row>
+    <row r="90" spans="1:24" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E90" s="32">
-        <v>35588.0</v>
+        <v>35588</v>
       </c>
       <c r="F90" s="30" t="s">
+        <v>385</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="K90" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="J90" s="1" t="s">
+      <c r="L90" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="O90" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="P90" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R90" s="12"/>
+      <c r="W90" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="X90" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="K90" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="L90" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="N90" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q90" s="12"/>
-      <c r="V90" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="W90" s="1" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="91">
+    </row>
+    <row r="91" spans="1:24" ht="153" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D91" s="32">
-        <v>37474.0</v>
+        <v>37474</v>
       </c>
       <c r="E91" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F91" s="30" t="s">
         <v>390</v>
       </c>
-      <c r="F91" s="30" t="s">
+      <c r="G91" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="I91" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="J91" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="K91" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="J91" s="1" t="s">
+      <c r="L91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P91" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R91" s="12"/>
+      <c r="W91" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="K91" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L91" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="N91" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q91" s="12"/>
-      <c r="V91" s="1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="92">
+    </row>
+    <row r="92" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D92" s="33">
-        <v>36557.0</v>
+        <v>36557</v>
       </c>
       <c r="F92" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="G92" s="10" t="s">
         <v>397</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="I92" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="J92" s="1" t="s">
+      <c r="L92" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N92" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="K92" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L92" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M92" s="1" t="s">
+      <c r="O92" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P92" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q92" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="N92" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P92" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q92" s="12"/>
-    </row>
-    <row r="93">
+      <c r="R92" s="12"/>
+    </row>
+    <row r="93" spans="1:24" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D93" s="35">
-        <v>40159.0</v>
+        <v>40159</v>
       </c>
       <c r="E93" s="35">
-        <v>40362.0</v>
+        <v>40362</v>
       </c>
       <c r="F93" s="30" t="s">
+        <v>403</v>
+      </c>
+      <c r="G93" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="I93" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="J93" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K93" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="J93" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="K93" s="1" t="s">
+      <c r="L93" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L93" s="1" t="s">
+      <c r="M93" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N93" s="1" t="s">
+      <c r="O93" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="O93" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q93" s="12"/>
-    </row>
-    <row r="94">
+      <c r="P93" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R93" s="12"/>
+    </row>
+    <row r="94" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>103</v>
       </c>
       <c r="D94" s="32">
-        <v>39671.0</v>
+        <v>39671</v>
       </c>
       <c r="E94" s="32">
-        <v>40027.0</v>
+        <v>40027</v>
       </c>
       <c r="F94" s="30" t="s">
+        <v>408</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>409</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>410</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="J94" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="J94" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q94" s="12"/>
-    </row>
-    <row r="95">
+      <c r="R94" s="12"/>
+    </row>
+    <row r="95" spans="1:24" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D95" s="32">
-        <v>39971.0</v>
+        <v>39971</v>
       </c>
       <c r="E95" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F95" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="F95" s="30" t="s">
+      <c r="G95" s="36" t="s">
         <v>415</v>
       </c>
-      <c r="G95" s="36" t="s">
+      <c r="I95" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="J95" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K95" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="J95" s="1" t="s">
+      <c r="L95" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N95" s="1">
+        <v>2400</v>
+      </c>
+      <c r="O95" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="P95" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q95" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M95" s="1">
-        <v>2400.0</v>
-      </c>
-      <c r="N95" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="O95" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q95" s="12"/>
-    </row>
-    <row r="96">
+      <c r="R95" s="12"/>
+    </row>
+    <row r="96" spans="1:24" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D96" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="F96" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="F96" s="30" t="s">
+      <c r="G96" s="10" t="s">
         <v>422</v>
       </c>
-      <c r="G96" s="10" t="s">
+      <c r="I96" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J96" s="18" t="s">
+      <c r="J96" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K96" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="Q96" s="12"/>
-    </row>
-    <row r="97">
+      <c r="R96" s="12"/>
+    </row>
+    <row r="97" spans="1:24" ht="165.75" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F97" s="30" t="s">
         <v>426</v>
       </c>
-      <c r="F97" s="30" t="s">
+      <c r="G97" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="G97" s="10" t="s">
+      <c r="I97" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J97" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K97" s="18" t="s">
         <v>428</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J97" s="18" t="s">
+      <c r="L97" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O97" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="R97" s="12"/>
+      <c r="X97" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="K97" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="N97" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="O97" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q97" s="12"/>
-      <c r="W97" s="1" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="98">
+    </row>
+    <row r="98" spans="1:24" ht="102" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F98" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="G98" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="G98" s="10" t="s">
+      <c r="I98" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K98" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J98" s="18" t="s">
+      <c r="L98" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N98" s="1">
+        <v>100</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="P98" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q98" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="K98" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L98" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M98" s="1">
-        <v>100.0</v>
-      </c>
-      <c r="N98" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="O98" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="P98" s="1" t="s">
+      <c r="R98" s="12"/>
+      <c r="X98" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="Q98" s="12"/>
-      <c r="W98" s="1" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="99">
+    </row>
+    <row r="99" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D99" s="1">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="F99" s="19"/>
       <c r="I99" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J99" s="18" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q99" s="12"/>
-    </row>
-    <row r="100">
+        <v>423</v>
+      </c>
+      <c r="J99" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K99" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="R99" s="12"/>
+    </row>
+    <row r="100" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D100" s="1">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="F100" s="19"/>
       <c r="I100" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J100" s="18" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q100" s="12"/>
-    </row>
-    <row r="101">
+        <v>423</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K100" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="R100" s="12"/>
+    </row>
+    <row r="101" spans="1:24" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D101" s="33">
-        <v>42552.0</v>
+        <v>42552</v>
       </c>
       <c r="E101" s="33">
-        <v>42736.0</v>
+        <v>42736</v>
       </c>
       <c r="F101" s="30" t="s">
+        <v>441</v>
+      </c>
+      <c r="I101" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J101" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K101" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J101" s="18" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q101" s="12"/>
-    </row>
-    <row r="102">
+      <c r="R101" s="12"/>
+    </row>
+    <row r="102" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D102" s="1">
+        <v>2008</v>
+      </c>
+      <c r="F102" s="30" t="s">
         <v>444</v>
       </c>
-      <c r="D102" s="1">
-        <v>2008.0</v>
-      </c>
-      <c r="F102" s="30" t="s">
+      <c r="I102" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J102" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K102" s="18" t="s">
         <v>445</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J102" s="18" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q102" s="12"/>
-    </row>
-    <row r="103">
+      <c r="R102" s="12"/>
+    </row>
+    <row r="103" spans="1:24" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D103" s="1">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="F103" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="J103" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K103" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="J103" s="18" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q103" s="12"/>
-    </row>
-    <row r="104">
+      <c r="R103" s="12"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="D104" s="1"/>
       <c r="F104" s="19"/>
       <c r="I104" s="1"/>
-      <c r="Q104" s="12"/>
-    </row>
-    <row r="105">
+      <c r="J104" s="16"/>
+      <c r="R104" s="12"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="D105" s="1"/>
       <c r="F105" s="19"/>
-      <c r="Q105" s="12"/>
-    </row>
-    <row r="106">
+      <c r="R105" s="12"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="D106" s="1"/>
       <c r="F106" s="19"/>
-      <c r="Q106" s="12"/>
-    </row>
-    <row r="107">
+      <c r="R106" s="12"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -5648,103 +6593,106 @@
       <c r="F107" s="30"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="Q107" s="12"/>
-    </row>
-    <row r="108">
+      <c r="J107" s="16"/>
+      <c r="R107" s="12"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="F108" s="19"/>
-      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items; specify in Description. If none apply, select 'General' and use next column" sqref="K2:K108">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items; specify in Description. If none apply, select 'General' and use next column" sqref="L2:L108">
       <formula1>"General,Children,Young people,Elderly,Profession,Shared background"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="N2:N108">
+    <dataValidation type="list" allowBlank="1" sqref="O2:O108">
       <formula1>"Devised,Discursive,Generative,Instructed,Object interaction,Workshop,Mixed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="O2:O108">
+    <dataValidation type="list" allowBlank="1" sqref="P2:P108">
       <formula1>"Participants only,Exhibition/museum visitors,Invited/specialist,Passers-by"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="C2:C108">
       <formula1>"Artists,Researchers/Thinkers,Curators,Instigators,Performances,Interventions,Exhibitions,Initiatives,Other artwork,Institutions - Art,Institutions - Other,Public spaces"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items; specify in Description" sqref="L2:L108">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Click and enter a value from the list of items; specify in Description" sqref="M2:M108">
       <formula1>"All,Gender identity,LGBTQI,Ethnic/social group"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="G2"/>
-    <hyperlink r:id="rId3" ref="G3"/>
-    <hyperlink r:id="rId4" ref="G4"/>
-    <hyperlink r:id="rId5" ref="G5"/>
-    <hyperlink r:id="rId6" ref="G41"/>
-    <hyperlink r:id="rId7" ref="G42"/>
-    <hyperlink r:id="rId8" ref="G44"/>
-    <hyperlink r:id="rId9" ref="G45"/>
-    <hyperlink r:id="rId10" location="/media/File:Joan_Littlewood.jpg" ref="G46"/>
-    <hyperlink r:id="rId11" ref="G47"/>
-    <hyperlink r:id="rId12" ref="G48"/>
-    <hyperlink r:id="rId13" ref="G49"/>
-    <hyperlink r:id="rId14" ref="G50"/>
-    <hyperlink r:id="rId15" ref="G53"/>
-    <hyperlink r:id="rId16" ref="G56"/>
-    <hyperlink r:id="rId17" ref="G57"/>
-    <hyperlink r:id="rId18" ref="G58"/>
-    <hyperlink r:id="rId19" ref="G59"/>
-    <hyperlink r:id="rId20" ref="G60"/>
-    <hyperlink r:id="rId21" ref="G61"/>
-    <hyperlink r:id="rId22" ref="G62"/>
-    <hyperlink r:id="rId23" ref="G63"/>
-    <hyperlink r:id="rId24" ref="G64"/>
-    <hyperlink r:id="rId25" ref="G65"/>
-    <hyperlink r:id="rId26" ref="G66"/>
-    <hyperlink r:id="rId27" ref="G67"/>
-    <hyperlink r:id="rId28" ref="G71"/>
-    <hyperlink r:id="rId29" ref="G73"/>
-    <hyperlink r:id="rId30" ref="H73"/>
-    <hyperlink r:id="rId31" ref="G76"/>
-    <hyperlink r:id="rId32" ref="H76"/>
-    <hyperlink r:id="rId33" ref="G77"/>
-    <hyperlink r:id="rId34" ref="H77"/>
-    <hyperlink r:id="rId35" ref="G78"/>
-    <hyperlink r:id="rId36" ref="H78"/>
-    <hyperlink r:id="rId37" ref="G79"/>
-    <hyperlink r:id="rId38" ref="G80"/>
-    <hyperlink r:id="rId39" ref="G81"/>
-    <hyperlink r:id="rId40" ref="G82"/>
-    <hyperlink r:id="rId41" ref="G85"/>
-    <hyperlink r:id="rId42" ref="G86"/>
-    <hyperlink r:id="rId43" ref="G87"/>
-    <hyperlink r:id="rId44" ref="G88"/>
-    <hyperlink r:id="rId45" ref="G89"/>
-    <hyperlink r:id="rId46" ref="G91"/>
-    <hyperlink r:id="rId47" ref="G92"/>
-    <hyperlink r:id="rId48" ref="G93"/>
-    <hyperlink r:id="rId49" ref="G94"/>
-    <hyperlink r:id="rId50" ref="G95"/>
-    <hyperlink r:id="rId51" ref="G96"/>
-    <hyperlink r:id="rId52" ref="G97"/>
-    <hyperlink r:id="rId53" ref="G98"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G41" r:id="rId5"/>
+    <hyperlink ref="G42" r:id="rId6"/>
+    <hyperlink ref="G44" r:id="rId7"/>
+    <hyperlink ref="G45" r:id="rId8"/>
+    <hyperlink ref="G46" r:id="rId9" location="/media/File:Joan_Littlewood.jpg"/>
+    <hyperlink ref="G47" r:id="rId10"/>
+    <hyperlink ref="G48" r:id="rId11"/>
+    <hyperlink ref="G49" r:id="rId12"/>
+    <hyperlink ref="G50" r:id="rId13"/>
+    <hyperlink ref="G53" r:id="rId14"/>
+    <hyperlink ref="G56" r:id="rId15"/>
+    <hyperlink ref="G57" r:id="rId16"/>
+    <hyperlink ref="G58" r:id="rId17"/>
+    <hyperlink ref="G59" r:id="rId18"/>
+    <hyperlink ref="G60" r:id="rId19"/>
+    <hyperlink ref="G61" r:id="rId20"/>
+    <hyperlink ref="G62" r:id="rId21"/>
+    <hyperlink ref="G63" r:id="rId22"/>
+    <hyperlink ref="G64" r:id="rId23"/>
+    <hyperlink ref="G65" r:id="rId24"/>
+    <hyperlink ref="G66" r:id="rId25"/>
+    <hyperlink ref="G67" r:id="rId26"/>
+    <hyperlink ref="G71" r:id="rId27"/>
+    <hyperlink ref="G73" r:id="rId28"/>
+    <hyperlink ref="H73" r:id="rId29"/>
+    <hyperlink ref="G76" r:id="rId30"/>
+    <hyperlink ref="H76" r:id="rId31"/>
+    <hyperlink ref="G77" r:id="rId32"/>
+    <hyperlink ref="H77" r:id="rId33"/>
+    <hyperlink ref="G78" r:id="rId34"/>
+    <hyperlink ref="H78" r:id="rId35"/>
+    <hyperlink ref="G79" r:id="rId36"/>
+    <hyperlink ref="G80" r:id="rId37"/>
+    <hyperlink ref="G81" r:id="rId38"/>
+    <hyperlink ref="G82" r:id="rId39"/>
+    <hyperlink ref="G85" r:id="rId40"/>
+    <hyperlink ref="G86" r:id="rId41"/>
+    <hyperlink ref="G87" r:id="rId42"/>
+    <hyperlink ref="G88" r:id="rId43"/>
+    <hyperlink ref="G89" r:id="rId44"/>
+    <hyperlink ref="G91" r:id="rId45"/>
+    <hyperlink ref="G92" r:id="rId46"/>
+    <hyperlink ref="G93" r:id="rId47"/>
+    <hyperlink ref="G94" r:id="rId48"/>
+    <hyperlink ref="G95" r:id="rId49"/>
+    <hyperlink ref="G96" r:id="rId50"/>
+    <hyperlink ref="G97" r:id="rId51"/>
+    <hyperlink ref="G98" r:id="rId52"/>
   </hyperlinks>
-  <drawing r:id="rId54"/>
-  <legacyDrawing r:id="rId55"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId53"/>
+  <legacyDrawing r:id="rId54"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="21.57"/>
+    <col min="1" max="2" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5753,6 +6701,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>